--- a/assets/slides/acct3210/S7/case.xlsx
+++ b/assets/slides/acct3210/S7/case.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ACCT3210_materials/slides/S7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A9F119-C078-F248-A5BB-73FCC1C36290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AF09AD-6F49-3848-A954-2A4FD5F3DD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42360" yWindow="21080" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
+    <workbookView xWindow="9080" yWindow="4380" windowWidth="26840" windowHeight="15940" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
   </bookViews>
   <sheets>
-    <sheet name="simple" sheetId="3" r:id="rId1"/>
-    <sheet name="what matters" sheetId="1" r:id="rId2"/>
-    <sheet name="npv" sheetId="2" r:id="rId3"/>
+    <sheet name="contents" sheetId="5" r:id="rId1"/>
+    <sheet name="simple" sheetId="3" r:id="rId2"/>
+    <sheet name="what matters" sheetId="1" r:id="rId3"/>
+    <sheet name="npv v1" sheetId="2" r:id="rId4"/>
+    <sheet name="npv v2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,8 +75,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B781F698-F9D3-6743-9665-8876523E404D}</author>
+    <author>tc={7BB4F94D-373F-CF4C-8E97-AA865D4B717F}</author>
+    <author>tc={31E66A97-8F8A-374D-B6C3-0540E7C4309B}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B781F698-F9D3-6743-9665-8876523E404D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{7BB4F94D-373F-CF4C-8E97-AA865D4B717F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    We don’t include the cost of operations for 2023 because we incur them in both scenarios.</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="2" shapeId="0" xr:uid="{31E66A97-8F8A-374D-B6C3-0540E7C4309B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>New Machine:</t>
   </si>
@@ -263,6 +301,39 @@
   </si>
   <si>
     <t>Investment</t>
+  </si>
+  <si>
+    <t>This is a page of free form notes to give some context about my workflow.</t>
+  </si>
+  <si>
+    <t>raise for old manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet name </t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>a simple example of calculating the NPV of a series of cash flows</t>
+  </si>
+  <si>
+    <t>what matters</t>
+  </si>
+  <si>
+    <t>a sheet with free form notes where I start to gather the bits of information that I will use</t>
+  </si>
+  <si>
+    <t>npv v1</t>
+  </si>
+  <si>
+    <t>this is my preferred method for setting up the problem</t>
+  </si>
+  <si>
+    <t>npv v2</t>
+  </si>
+  <si>
+    <t>this is an equally valid approach which attemps to be more explicit</t>
   </si>
 </sst>
 </file>
@@ -272,9 +343,9 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,6 +425,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -423,7 +501,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -444,12 +522,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -784,7 +864,76 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2023-02-27T23:33:35.63" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{B781F698-F9D3-6743-9665-8876523E404D}">
+    <text>I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023</text>
+  </threadedComment>
+  <threadedComment ref="C6" dT="2023-02-28T10:21:52.42" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{7BB4F94D-373F-CF4C-8E97-AA865D4B717F}">
+    <text>We don’t include the cost of operations for 2023 because we incur them in both scenarios.</text>
+  </threadedComment>
+  <threadedComment ref="C7" dT="2023-02-28T10:24:15.45" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{31E66A97-8F8A-374D-B6C3-0540E7C4309B}">
+    <text>This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EF05B2-74A1-D14F-857C-FC650027815B}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4645617-069A-0F46-A953-9B9A846127BD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -921,12 +1070,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F12574F-0551-3041-9840-066F27AE6BF7}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,344 +1085,349 @@
     <col min="3" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1100000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1100000</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1700000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>4000</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <f>6500*50</f>
         <v>325000</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <f>6500*80</f>
         <v>520000</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>40000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>20000</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>40000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17">
         <f>75000+89000</f>
         <v>164000</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>85000</v>
       </c>
-      <c r="D15">
-        <f>B15-C15</f>
+      <c r="D17">
+        <f>B17-C17</f>
         <v>79000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="10">
-        <v>2000</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="10">
-        <v>2000</v>
-      </c>
-      <c r="C20" s="10">
-        <v>500</v>
-      </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="11">
-        <v>3750000</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="D21" s="11">
-        <v>4750000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="11">
-        <v>2600000</v>
-      </c>
-      <c r="C22" s="11">
-        <v>400000</v>
-      </c>
-      <c r="D22" s="11">
-        <v>3000000</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="10">
+        <v>500</v>
+      </c>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="11">
-        <v>600000</v>
+        <v>3750000</v>
       </c>
       <c r="C23" s="11">
-        <v>150000</v>
+        <v>1000000</v>
       </c>
       <c r="D23" s="11">
-        <v>750000</v>
+        <v>4750000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="11">
-        <v>3200000</v>
+        <v>2600000</v>
       </c>
       <c r="C24" s="11">
-        <v>550000</v>
+        <v>400000</v>
       </c>
       <c r="D24" s="11">
-        <v>3750000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11">
+        <v>600000</v>
+      </c>
+      <c r="C25" s="11">
+        <v>150000</v>
+      </c>
+      <c r="D25" s="11">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="11">
+        <v>3200000</v>
+      </c>
+      <c r="C26" s="11">
+        <v>550000</v>
+      </c>
+      <c r="D26" s="11">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11">
         <v>1000000</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9">
-        <v>200000</v>
-      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9">
         <v>75000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="12">
-        <v>325000</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="6">
-        <v>850000</v>
+      <c r="D32" s="13">
+        <v>100000</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="7">
-        <v>150000</v>
+      <c r="D33" s="12">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6">
+        <v>850000</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7">
+        <v>150000</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1282,11 +1436,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1891ED6A-8201-4441-9DDB-F3B0CCF23FA7}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1479,27 +1633,27 @@
         <v>51</v>
       </c>
       <c r="B10" s="1">
-        <f>SUM(B4:B9)</f>
+        <f t="shared" ref="B10:G10" si="1">SUM(B4:B9)</f>
         <v>-1100000</v>
       </c>
       <c r="C10" s="1">
-        <f>SUM(C4:C9)</f>
+        <f t="shared" si="1"/>
         <v>861000</v>
       </c>
       <c r="D10" s="1">
-        <f>SUM(D4:D9)</f>
+        <f t="shared" si="1"/>
         <v>341000</v>
       </c>
       <c r="E10" s="1">
-        <f>SUM(E4:E9)</f>
+        <f t="shared" si="1"/>
         <v>861000</v>
       </c>
       <c r="F10" s="1">
-        <f>SUM(F4:F9)</f>
+        <f t="shared" si="1"/>
         <v>861000</v>
       </c>
       <c r="G10" s="1">
-        <f>SUM(G4:G9)</f>
+        <f t="shared" si="1"/>
         <v>961000</v>
       </c>
     </row>
@@ -1508,27 +1662,27 @@
         <v>53</v>
       </c>
       <c r="B11" s="15">
-        <f>B3-$B$3</f>
+        <f t="shared" ref="B11:G11" si="2">B3-$B$3</f>
         <v>0</v>
       </c>
       <c r="C11" s="15">
-        <f>C3-$B$3</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D11" s="15">
-        <f>D3-$B$3</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E11" s="15">
-        <f>E3-$B$3</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F11" s="15">
-        <f>F3-$B$3</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G11" s="15">
-        <f>G3-$B$3</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -1537,27 +1691,27 @@
         <v>54</v>
       </c>
       <c r="B12" s="1">
-        <f>(B10)/((1+$B$1)^B11)</f>
+        <f t="shared" ref="B12:G12" si="3">(B10)/((1+$B$1)^B11)</f>
         <v>-1100000</v>
       </c>
       <c r="C12" s="1">
-        <f>(C10)/((1+$B$1)^C11)</f>
+        <f t="shared" si="3"/>
         <v>782727.27272727271</v>
       </c>
       <c r="D12" s="1">
-        <f>(D10)/((1+$B$1)^D11)</f>
+        <f t="shared" si="3"/>
         <v>281818.18181818177</v>
       </c>
       <c r="E12" s="1">
-        <f>(E10)/((1+$B$1)^E11)</f>
+        <f t="shared" si="3"/>
         <v>646882.04357625823</v>
       </c>
       <c r="F12" s="1">
-        <f>(F10)/((1+$B$1)^F11)</f>
+        <f t="shared" si="3"/>
         <v>588074.58506932575</v>
       </c>
       <c r="G12" s="1">
-        <f>(G10)/((1+$B$1)^G11)</f>
+        <f t="shared" si="3"/>
         <v>596705.39145984792</v>
       </c>
     </row>
@@ -1594,6 +1748,428 @@
       </c>
       <c r="B16" s="1">
         <v>1700000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513AF158-0DB5-5843-9E42-5F724975E01F}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2022</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>2024</v>
+      </c>
+      <c r="E3">
+        <v>2025</v>
+      </c>
+      <c r="F3">
+        <v>2026</v>
+      </c>
+      <c r="G3">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-60000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-60000</v>
+      </c>
+      <c r="E5" s="14">
+        <v>-60000</v>
+      </c>
+      <c r="F5" s="14">
+        <v>-60000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f>-6500*80</f>
+        <v>-520000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f>-89000</f>
+        <v>-89000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">-89000</f>
+        <v>-89000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>-89000</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-89000</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>-89000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1100000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:G10" si="1">SUM(B4:B9)</f>
+        <v>-1100000</v>
+      </c>
+      <c r="C10" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>851000</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(D4:D9)</f>
+        <v>331000</v>
+      </c>
+      <c r="E10" s="1">
+        <f>SUM(E4:E9)</f>
+        <v>851000</v>
+      </c>
+      <c r="F10" s="1">
+        <f>SUM(F4:F9)</f>
+        <v>851000</v>
+      </c>
+      <c r="G10" s="1">
+        <f>SUM(G4:G9)</f>
+        <v>951000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" ref="B11:G11" si="2">B3-$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:G12" si="3">(B10)/((1+$B$1)^B11)</f>
+        <v>-1100000</v>
+      </c>
+      <c r="C12" s="1">
+        <f>(C10)/((1+$B$1)^C11)</f>
+        <v>773636.36363636353</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(D10)/((1+$B$1)^D11)</f>
+        <v>273553.71900826442</v>
+      </c>
+      <c r="E12" s="1">
+        <f>(E10)/((1+$B$1)^E11)</f>
+        <v>639368.89556724252</v>
+      </c>
+      <c r="F12" s="1">
+        <f>(F10)/((1+$B$1)^F11)</f>
+        <v>581244.45051567501</v>
+      </c>
+      <c r="G12" s="1">
+        <f>(G10)/((1+$B$1)^G11)</f>
+        <v>590496.17822925642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="22">
+        <f>SUM(B12:G12)</f>
+        <v>1758299.6069568018</v>
+      </c>
+      <c r="C13" s="23">
+        <f>NPV(B1,C10:G10)+B9</f>
+        <v>1758299.6069568023</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>2023</v>
+      </c>
+      <c r="D15">
+        <v>2024</v>
+      </c>
+      <c r="E15">
+        <v>2025</v>
+      </c>
+      <c r="F15">
+        <v>2026</v>
+      </c>
+      <c r="G15">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>-10000</v>
+      </c>
+      <c r="D17">
+        <v>-10000</v>
+      </c>
+      <c r="E17">
+        <v>-10000</v>
+      </c>
+      <c r="F17">
+        <v>-10000</v>
+      </c>
+      <c r="G17">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="25">
+        <f>SUM(B16:B17)</f>
+        <v>1700000</v>
+      </c>
+      <c r="C18" s="25">
+        <f t="shared" ref="C18:G18" si="4">SUM(C16:C17)</f>
+        <v>-10000</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="4"/>
+        <v>-10000</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" si="4"/>
+        <v>-10000</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="4"/>
+        <v>-10000</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="4"/>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="25">
+        <f>(B18)/((1+$B$1)^B11)</f>
+        <v>1700000</v>
+      </c>
+      <c r="C19" s="25">
+        <f t="shared" ref="C19:G19" si="5">(C18)/((1+$B$1)^C11)</f>
+        <v>-9090.9090909090901</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="5"/>
+        <v>-8264.4628099173533</v>
+      </c>
+      <c r="E19" s="25">
+        <f t="shared" si="5"/>
+        <v>-7513.1480090157756</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="5"/>
+        <v>-6830.1345536507051</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="5"/>
+        <v>-6209.2132305915493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="25">
+        <f>SUM(B19:G19)</f>
+        <v>1662092.1323059157</v>
       </c>
     </row>
   </sheetData>

--- a/assets/slides/acct3210/S7/case.xlsx
+++ b/assets/slides/acct3210/S7/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AF09AD-6F49-3848-A954-2A4FD5F3DD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DAE4FD-DE8D-254E-AB33-09A0EE6F32B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="4380" windowWidth="26840" windowHeight="15940" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
+    <workbookView xWindow="9080" yWindow="4380" windowWidth="26840" windowHeight="15940" activeTab="4" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="5" r:id="rId1"/>
@@ -104,7 +104,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</t>
+    In this version I’ve given the 10,000 raise into it’s own line</t>
       </text>
     </comment>
   </commentList>
@@ -873,7 +873,7 @@
     <text>We don’t include the cost of operations for 2023 because we incur them in both scenarios.</text>
   </threadedComment>
   <threadedComment ref="C7" dT="2023-02-28T10:24:15.45" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{31E66A97-8F8A-374D-B6C3-0540E7C4309B}">
-    <text>This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</text>
+    <text>In this version I’ve given the 10,000 raise into it’s own line</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -882,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EF05B2-74A1-D14F-857C-FC650027815B}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513AF158-0DB5-5843-9E42-5F724975E01F}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/slides/acct3210/S7/case.xlsx
+++ b/assets/slides/acct3210/S7/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DAE4FD-DE8D-254E-AB33-09A0EE6F32B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D9D6A-01B0-1D4C-B273-D157F3C21623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="4380" windowWidth="26840" windowHeight="15940" activeTab="4" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
+    <workbookView xWindow="9080" yWindow="4380" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="5" r:id="rId1"/>
@@ -345,7 +345,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,12 +418,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -528,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -937,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4645617-069A-0F46-A953-9B9A846127BD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,8 +973,8 @@
         <v>250000</v>
       </c>
       <c r="C4" s="18">
-        <f>B4/((1+$F$2)^A4)</f>
-        <v>250000</v>
+        <f>B4/((1+$B$2)^A4)</f>
+        <v>223214.28571428568</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -991,8 +985,8 @@
         <v>300000</v>
       </c>
       <c r="C5" s="18">
-        <f>B5/((1+$F$2)^A5)</f>
-        <v>300000</v>
+        <f t="shared" ref="C5:C9" si="0">B5/((1+$B$2)^A5)</f>
+        <v>239158.1632653061</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1003,8 +997,8 @@
         <v>340000</v>
       </c>
       <c r="C6" s="18">
-        <f>B6/((1+$F$2)^A6)</f>
-        <v>340000</v>
+        <f t="shared" si="0"/>
+        <v>242005.28425655971</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1015,8 +1009,8 @@
         <v>375000</v>
       </c>
       <c r="C7" s="18">
-        <f>B7/((1+$F$2)^A7)</f>
-        <v>375000</v>
+        <f t="shared" si="0"/>
+        <v>238319.27940181168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1026,9 +1020,9 @@
       <c r="B8" s="20">
         <v>300000</v>
       </c>
-      <c r="C8" s="18">
-        <f>B8/((1+$F$2)^A8)</f>
-        <v>300000</v>
+      <c r="C8" s="20">
+        <f t="shared" si="0"/>
+        <v>170228.05671557976</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1041,7 +1035,7 @@
       </c>
       <c r="C9" s="18">
         <f>SUM(C4:C8)</f>
-        <v>1565000</v>
+        <v>1112925.069353543</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1760,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513AF158-0DB5-5843-9E42-5F724975E01F}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1953,7 +1947,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:G10" si="1">SUM(B4:B9)</f>
+        <f t="shared" ref="B10" si="1">SUM(B4:B9)</f>
         <v>-1100000</v>
       </c>
       <c r="C10" s="1">
@@ -2011,7 +2005,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ref="B12:G12" si="3">(B10)/((1+$B$1)^B11)</f>
+        <f t="shared" ref="B12" si="3">(B10)/((1+$B$1)^B11)</f>
         <v>-1100000</v>
       </c>
       <c r="C12" s="1">

--- a/assets/slides/acct3210/S7/case.xlsx
+++ b/assets/slides/acct3210/S7/case.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D9D6A-01B0-1D4C-B273-D157F3C21623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F05ACB-A8BB-4943-BF36-73416B365B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="4380" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
+    <workbookView xWindow="38200" yWindow="1020" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="5" r:id="rId1"/>
-    <sheet name="simple" sheetId="3" r:id="rId2"/>
-    <sheet name="what matters" sheetId="1" r:id="rId3"/>
-    <sheet name="npv v1" sheetId="2" r:id="rId4"/>
-    <sheet name="npv v2" sheetId="4" r:id="rId5"/>
+    <sheet name="simple example blank" sheetId="6" r:id="rId2"/>
+    <sheet name="simple" sheetId="3" r:id="rId3"/>
+    <sheet name="what matters" sheetId="1" r:id="rId4"/>
+    <sheet name="npv v1" sheetId="2" r:id="rId5"/>
+    <sheet name="npv v2" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>New Machine:</t>
   </si>
@@ -291,9 +292,6 @@
     <t>Rate:</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
     <t>discounted cash flows</t>
   </si>
   <si>
@@ -334,6 +332,33 @@
   </si>
   <si>
     <t>this is an equally valid approach which attemps to be more explicit</t>
+  </si>
+  <si>
+    <t>Cash flow</t>
+  </si>
+  <si>
+    <t>For practice, lets calculate the NPV of this stream of payments.</t>
+  </si>
+  <si>
+    <t>Step 1: Calculate the present value of each payment.</t>
+  </si>
+  <si>
+    <t>Investment (year 0):</t>
+  </si>
+  <si>
+    <t>We invest a million dollars in year 1 and get paid 1.5 million over the next 5 years</t>
+  </si>
+  <si>
+    <t>Is this worth it?</t>
+  </si>
+  <si>
+    <t>Step 2: Sum.</t>
+  </si>
+  <si>
+    <t>Step 3: Subtract initial investment</t>
+  </si>
+  <si>
+    <t>Step 4: Profit</t>
   </si>
 </sst>
 </file>
@@ -427,12 +452,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -495,7 +544,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -524,6 +573,18 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -550,9 +611,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -590,7 +651,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -696,7 +757,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -838,7 +899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -887,39 +948,39 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -928,11 +989,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A838ABEF-66BC-264A-AD12-4D00FAAEBF3F}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="18">
+        <f>SUM(B4:B8)</f>
+        <v>1565000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="26">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4645617-069A-0F46-A953-9B9A846127BD}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,12 +1108,12 @@
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -954,109 +1121,126 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="18">
         <v>250000</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="27">
         <f>B4/((1+$B$2)^A4)</f>
         <v>223214.28571428568</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="18">
         <v>300000</v>
       </c>
-      <c r="C5" s="18">
-        <f t="shared" ref="C5:C9" si="0">B5/((1+$B$2)^A5)</f>
+      <c r="C5" s="27">
+        <f t="shared" ref="C5:C8" si="0">B5/((1+$B$2)^A5)</f>
         <v>239158.1632653061</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="18">
         <v>340000</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>242005.28425655971</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="18">
         <v>375000</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>238319.27940181168</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>5</v>
       </c>
       <c r="B8" s="20">
         <v>300000</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="28">
         <f t="shared" si="0"/>
         <v>170228.05671557976</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="18">
+        <v>60</v>
+      </c>
+      <c r="B9" s="35">
         <f>NPV(B2,B4:B8)</f>
         <v>1112925.069353543</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="31">
         <f>SUM(C4:C8)</f>
         <v>1112925.069353543</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="18">
+        <v>61</v>
+      </c>
+      <c r="B10" s="35">
         <v>-1000000</v>
       </c>
       <c r="C10" s="18"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="37">
         <f>SUM(B9:B10)</f>
         <v>112925.06935354299</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="16"/>
     </row>
   </sheetData>
@@ -1064,7 +1248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F12574F-0551-3041-9840-066F27AE6BF7}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -1081,7 +1265,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1430,12 +1614,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1891ED6A-8201-4441-9DDB-F3B0CCF23FA7}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,7 +1934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513AF158-0DB5-5843-9E42-5F724975E01F}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -2081,7 +2265,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>-10000</v>

--- a/assets/slides/acct3210/S7/case.xlsx
+++ b/assets/slides/acct3210/S7/case.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F05ACB-A8BB-4943-BF36-73416B365B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5831F9-D63F-244A-A47B-020F882C7B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38200" yWindow="1020" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
+    <workbookView xWindow="15840" yWindow="920" windowWidth="18560" windowHeight="20620" firstSheet="1" activeTab="8" xr2:uid="{C00C2333-4917-5D42-BB89-93715C7EFC19}"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="5" r:id="rId1"/>
     <sheet name="simple example blank" sheetId="6" r:id="rId2"/>
     <sheet name="simple" sheetId="3" r:id="rId3"/>
     <sheet name="what matters" sheetId="1" r:id="rId4"/>
-    <sheet name="npv v1" sheetId="2" r:id="rId5"/>
-    <sheet name="npv v2" sheetId="4" r:id="rId6"/>
+    <sheet name="Q1&amp;2-s1" sheetId="9" r:id="rId5"/>
+    <sheet name="Q1&amp;2-s2" sheetId="8" r:id="rId6"/>
+    <sheet name="Q1&amp;2-s3" sheetId="7" r:id="rId7"/>
+    <sheet name="Q1&amp;2-s4" sheetId="2" r:id="rId8"/>
+    <sheet name="Q1&amp;2-full" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,6 +44,114 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6DD216F7-053A-AE44-B598-850E696573EB}</author>
+    <author>tc={4BB3CEB9-10F9-0240-A1FA-E21004DEDEE5}</author>
+    <author>tc={837E21AC-3E5A-E741-A184-40D629679218}</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{6DD216F7-053A-AE44-B598-850E696573EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023 (i.e. Jan 1, 2023)</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{4BB3CEB9-10F9-0240-A1FA-E21004DEDEE5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    We don’t include the cost of operations for 2023 because we incur them in both scenarios.</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{837E21AC-3E5A-E741-A184-40D629679218}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={729B4437-D9F4-1A4C-9A14-224FC64A9BB4}</author>
+    <author>tc={33825DBC-83DA-0A49-8BDF-999D239776C1}</author>
+    <author>tc={A6304664-7E35-AE42-BBF8-4986724C6A38}</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{729B4437-D9F4-1A4C-9A14-224FC64A9BB4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{33825DBC-83DA-0A49-8BDF-999D239776C1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    We don’t include the cost of operations for 2023 because we incur them in both scenarios.</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{A6304664-7E35-AE42-BBF8-4986724C6A38}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4E8298A5-05AB-4549-83A5-75D346EDEA94}</author>
+    <author>tc={20D046C6-7577-A44C-AF4D-69024AFB4C53}</author>
+    <author>tc={B253D05A-484A-BB4C-B08B-A30AB8FE5E4B}</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{4E8298A5-05AB-4549-83A5-75D346EDEA94}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{20D046C6-7577-A44C-AF4D-69024AFB4C53}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    We don’t include the cost of operations for 2023 because we incur them in both scenarios.</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{B253D05A-484A-BB4C-B08B-A30AB8FE5E4B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={C541C10A-E2C9-CA49-BA0A-4A450548C6D3}</author>
@@ -76,7 +187,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B781F698-F9D3-6743-9665-8876523E404D}</author>
@@ -113,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>New Machine:</t>
   </si>
@@ -359,18 +470,56 @@
   </si>
   <si>
     <t>Step 4: Profit</t>
+  </si>
+  <si>
+    <t>Question 1: What do shareholders want (max NPV)</t>
+  </si>
+  <si>
+    <t>Question 2: What does the manager want? (Note that this sale is on the 2023 books, but in Jan so we don't discount it)</t>
+  </si>
+  <si>
+    <t>Question 3: Take Special Order?</t>
+  </si>
+  <si>
+    <t>Step 1: Gather the relevant information and assign it to years.</t>
+  </si>
+  <si>
+    <t>Step 2: Calculate net cashflow for each year (undiscounted)</t>
+  </si>
+  <si>
+    <t>Step 3: Discount the future cashflows</t>
+  </si>
+  <si>
+    <t>- What is Rev/unit? (500)</t>
+  </si>
+  <si>
+    <t>- What is V. Sell/unit? (275)</t>
+  </si>
+  <si>
+    <t>- Is there an incentive conflict?</t>
+  </si>
+  <si>
+    <t>&lt;--Note: two alternatives for calculating NPV</t>
+  </si>
+  <si>
+    <t>This is going to keep coming up throughout the course.</t>
+  </si>
+  <si>
+    <t>NPV--&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,6 +600,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -484,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -538,13 +693,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -575,7 +740,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -585,9 +749,18 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -907,6 +1080,48 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2023-02-27T23:33:35.63" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{6DD216F7-053A-AE44-B598-850E696573EB}">
+    <text>I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023 (i.e. Jan 1, 2023)</text>
+  </threadedComment>
+  <threadedComment ref="C7" dT="2023-02-28T10:21:52.42" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{4BB3CEB9-10F9-0240-A1FA-E21004DEDEE5}">
+    <text>We don’t include the cost of operations for 2023 because we incur them in both scenarios.</text>
+  </threadedComment>
+  <threadedComment ref="C8" dT="2023-02-28T10:24:15.45" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{837E21AC-3E5A-E741-A184-40D629679218}">
+    <text>This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2023-02-27T23:33:35.63" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{729B4437-D9F4-1A4C-9A14-224FC64A9BB4}">
+    <text>I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023</text>
+  </threadedComment>
+  <threadedComment ref="C7" dT="2023-02-28T10:21:52.42" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{33825DBC-83DA-0A49-8BDF-999D239776C1}">
+    <text>We don’t include the cost of operations for 2023 because we incur them in both scenarios.</text>
+  </threadedComment>
+  <threadedComment ref="C8" dT="2023-02-28T10:24:15.45" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{A6304664-7E35-AE42-BBF8-4986724C6A38}">
+    <text>This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2023-02-27T23:33:35.63" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{4E8298A5-05AB-4549-83A5-75D346EDEA94}">
+    <text>I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023</text>
+  </threadedComment>
+  <threadedComment ref="C7" dT="2023-02-28T10:21:52.42" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{20D046C6-7577-A44C-AF4D-69024AFB4C53}">
+    <text>We don’t include the cost of operations for 2023 because we incur them in both scenarios.</text>
+  </threadedComment>
+  <threadedComment ref="C8" dT="2023-02-28T10:24:15.45" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{B253D05A-484A-BB4C-B08B-A30AB8FE5E4B}">
+    <text>This is the 89,000 we pay the new manager minus the 10,000 that we do not have to give the old manager for the new job. This bonus could get it’s own line below.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B3" dT="2023-02-27T23:33:35.63" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{C541C10A-E2C9-CA49-BA0A-4A450548C6D3}">
     <text>I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023</text>
   </threadedComment>
@@ -919,7 +1134,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B3" dT="2023-02-27T23:33:35.63" personId="{1C1CB457-E2F2-B648-84DE-1AA844AD795C}" id="{B781F698-F9D3-6743-9665-8876523E404D}">
     <text>I’m calling this 2022, but think of this as “now” or more specifically the beginning of 2023</text>
@@ -992,14 +1207,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A838ABEF-66BC-264A-AD12-4D00FAAEBF3F}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1039,6 +1255,10 @@
       <c r="B4" s="18">
         <v>250000</v>
       </c>
+      <c r="C4" s="18">
+        <f>(B4)/((1+$B$2)^A4)</f>
+        <v>223214.28571428568</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1047,6 +1267,10 @@
       <c r="B5" s="18">
         <v>300000</v>
       </c>
+      <c r="C5" s="18">
+        <f t="shared" ref="C5:C8" si="0">(B5)/((1+$B$2)^A5)</f>
+        <v>239158.1632653061</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1055,6 +1279,10 @@
       <c r="B6" s="18">
         <v>340000</v>
       </c>
+      <c r="C6" s="18">
+        <f t="shared" si="0"/>
+        <v>242005.28425655971</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1063,6 +1291,10 @@
       <c r="B7" s="18">
         <v>375000</v>
       </c>
+      <c r="C7" s="18">
+        <f t="shared" si="0"/>
+        <v>238319.27940181168</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
@@ -1070,6 +1302,10 @@
       </c>
       <c r="B8" s="20">
         <v>300000</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="0"/>
+        <v>170228.05671557976</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1077,6 +1313,10 @@
         <f>SUM(B4:B8)</f>
         <v>1565000</v>
       </c>
+      <c r="C9" s="40">
+        <f>SUM(C4:C8)</f>
+        <v>1112925.069353543</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1085,12 +1325,29 @@
       <c r="B10" s="26">
         <v>-1000000</v>
       </c>
+      <c r="C10" s="26">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="42">
+        <f>NPV(B2,B4:B8)+B10</f>
+        <v>112925.06935354299</v>
+      </c>
+      <c r="C11" s="18">
+        <f>SUM(C9:C10)</f>
+        <v>112925.06935354299</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1098,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4645617-069A-0F46-A953-9B9A846127BD}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,12 +1388,12 @@
       <c r="C3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1149,7 +1406,7 @@
         <f>B4/((1+$B$2)^A4)</f>
         <v>223214.28571428568</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1164,11 +1421,11 @@
         <f t="shared" ref="C5:C8" si="0">B5/((1+$B$2)^A5)</f>
         <v>239158.1632653061</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1181,7 +1438,7 @@
         <f t="shared" si="0"/>
         <v>242005.28425655971</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1204,7 +1461,7 @@
       <c r="B8" s="20">
         <v>300000</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>170228.05671557976</v>
       </c>
@@ -1213,11 +1470,11 @@
       <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <f>NPV(B2,B4:B8)</f>
         <v>1112925.069353543</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <f>SUM(C4:C8)</f>
         <v>1112925.069353543</v>
       </c>
@@ -1226,7 +1483,7 @@
       <c r="A10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>-1000000</v>
       </c>
       <c r="C10" s="18"/>
@@ -1235,7 +1492,7 @@
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <f>SUM(B9:B10)</f>
         <v>112925.06935354299</v>
       </c>
@@ -1253,7 +1510,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1615,11 +1872,755 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC1BB25-5261-1C4B-9F35-AA8847F2C34E}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>2024</v>
+      </c>
+      <c r="E4">
+        <v>2025</v>
+      </c>
+      <c r="F4">
+        <v>2026</v>
+      </c>
+      <c r="G4">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-60000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-60000</v>
+      </c>
+      <c r="E6" s="14">
+        <v>-60000</v>
+      </c>
+      <c r="F6" s="14">
+        <v>-60000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>-6500*80</f>
+        <v>-520000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f>-79000</f>
+        <v>-79000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:G8" si="0">-79000</f>
+        <v>-79000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>-79000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>-79000</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>-79000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1100000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F12C5B-AA15-744C-9FD3-0E3A518054B7}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>2024</v>
+      </c>
+      <c r="E4">
+        <v>2025</v>
+      </c>
+      <c r="F4">
+        <v>2026</v>
+      </c>
+      <c r="G4">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-60000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-60000</v>
+      </c>
+      <c r="E6" s="14">
+        <v>-60000</v>
+      </c>
+      <c r="F6" s="14">
+        <v>-60000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>-6500*80</f>
+        <v>-520000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f>-79000</f>
+        <v>-79000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:G8" si="0">-79000</f>
+        <v>-79000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>-79000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>-79000</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>-79000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1100000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ref="B11:G11" si="1">SUM(B5:B10)</f>
+        <v>-1100000</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>861000</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>341000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>861000</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>861000</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>961000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="25">
+        <f>NPV(B2,C11:G11)+B11</f>
+        <v>1796207.4746508859</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F939258-01D2-414B-8843-F8839A864C36}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>2024</v>
+      </c>
+      <c r="E4">
+        <v>2025</v>
+      </c>
+      <c r="F4">
+        <v>2026</v>
+      </c>
+      <c r="G4">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-60000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-60000</v>
+      </c>
+      <c r="E6" s="14">
+        <v>-60000</v>
+      </c>
+      <c r="F6" s="14">
+        <v>-60000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>-6500*80</f>
+        <v>-520000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f>-79000</f>
+        <v>-79000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:G8" si="0">-79000</f>
+        <v>-79000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>-79000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>-79000</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>-79000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1100000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ref="B11:G11" si="1">SUM(B5:B10)</f>
+        <v>-1100000</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>861000</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>341000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>861000</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>861000</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>961000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" ref="B12:G12" si="2">B4-$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(B11)/((1+$B$2)^B12)</f>
+        <v>-1100000</v>
+      </c>
+      <c r="C13" s="1">
+        <f>(C11)/((1+$B$2)^C12)</f>
+        <v>782727.27272727271</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="B13:G13" si="3">(D11)/((1+$B$2)^D12)</f>
+        <v>281818.18181818177</v>
+      </c>
+      <c r="E13" s="1">
+        <f>(E11)/((1+$B$2)^E12)</f>
+        <v>646882.04357625823</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>588074.58506932575</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>596705.39145984792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1891ED6A-8201-4441-9DDB-F3B0CCF23FA7}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1934,12 +2935,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513AF158-0DB5-5843-9E42-5F724975E01F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2225,7 +3226,9 @@
         <f>NPV(B1,C10:G10)+B9</f>
         <v>1758299.6069568023</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2267,19 +3270,19 @@
       <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="37">
         <v>-10000</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="37">
         <v>-10000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="37">
         <v>-10000</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="37">
         <v>-10000</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="37">
         <v>-10000</v>
       </c>
     </row>
@@ -2348,6 +3351,41 @@
       <c r="B20" s="25">
         <f>SUM(B19:G19)</f>
         <v>1662092.1323059157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
